--- a/Documentos/Pruebas/Feedback.xlsx
+++ b/Documentos/Pruebas/Feedback.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Grupos" sheetId="1" r:id="rId1"/>
-    <sheet name="Diagnosticos" sheetId="2" r:id="rId2"/>
-    <sheet name="Rutinas" sheetId="3" r:id="rId3"/>
-    <sheet name="Alumnos" sheetId="4" r:id="rId4"/>
+    <sheet name="Diagnosticos" sheetId="2" r:id="rId1"/>
+    <sheet name="Rutinas" sheetId="3" r:id="rId2"/>
+    <sheet name="Alumnos" sheetId="4" r:id="rId3"/>
+    <sheet name="Grupos" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -35,6 +35,159 @@
   </si>
   <si>
     <t>Informacion</t>
+  </si>
+  <si>
+    <t>RU-0001</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Arreglado</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poner INEDITABLES las etiquetas de actividades y lugar </t>
+  </si>
+  <si>
+    <t>15 Min</t>
+  </si>
+  <si>
+    <t>Los campos deben de ser ineditables</t>
+  </si>
+  <si>
+    <t>RU-0002</t>
+  </si>
+  <si>
+    <t>Se debe de guardar toda la informacion al momento de presionar el boton guardar</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>Se deben de guardar todos los datos al momento de presionar el boton Guardar</t>
+  </si>
+  <si>
+    <t>RU-0003</t>
+  </si>
+  <si>
+    <t>El boton volver a menu no causa ningun efecto</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>al presionar el boton volver, se debe de volver a la pantalla principal de alumnos</t>
+  </si>
+  <si>
+    <t>RU-0004</t>
+  </si>
+  <si>
+    <t>Controlar los eventos de los campos de texto</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>Cada campo de texto desencadena un evento cada vez que el contenido cambia</t>
+  </si>
+  <si>
+    <t>RU-0005</t>
+  </si>
+  <si>
+    <t>No se estan guardando los ejercicios</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se deben de guardar los ejercicios junto con los demas datos de la pantalla </t>
+  </si>
+  <si>
+    <t>RU-0006</t>
+  </si>
+  <si>
+    <t>No se pueden asignar mas de un programa a la rutina</t>
+  </si>
+  <si>
+    <t>una rutina es capaz de tener ligados uno o mas programas a la vez</t>
+  </si>
+  <si>
+    <t>DI-0001</t>
+  </si>
+  <si>
+    <t>GR-0001</t>
+  </si>
+  <si>
+    <t>Botones y etiquetas estan movidas de lugar</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>Los componentes no estan alineados</t>
+  </si>
+  <si>
+    <t>GR-0002</t>
+  </si>
+  <si>
+    <t>Eliminar los botones de actualizar y eliminar maestro</t>
+  </si>
+  <si>
+    <t>Los botones no deben de estar en la pantalla</t>
+  </si>
+  <si>
+    <t>GR-0003</t>
+  </si>
+  <si>
+    <t>No se debe de asignar mas un grupo a un maestro</t>
+  </si>
+  <si>
+    <t>Logica de negocios</t>
+  </si>
+  <si>
+    <t>GR-0004</t>
+  </si>
+  <si>
+    <t>No respeta la capacidad de los grupos al agregar un alumno</t>
+  </si>
+  <si>
+    <t>GR-0005</t>
+  </si>
+  <si>
+    <t>No agrega alumnos sin grupo</t>
+  </si>
+  <si>
+    <t>Puede ser el modelo o la definicion de las propiedades en la BD</t>
+  </si>
+  <si>
+    <t>GR-0006</t>
+  </si>
+  <si>
+    <t>no elimina el grupo de la BD y de la lista</t>
+  </si>
+  <si>
+    <t>El sistema debe de eliminar el grupo de la base de datos y de la lista</t>
+  </si>
+  <si>
+    <t>GR-0007</t>
+  </si>
+  <si>
+    <t>La tabla aparece vacia con los botones habilitados</t>
+  </si>
+  <si>
+    <t>el sistema debe de deshabilitar los botones si no tiene grupos agregados</t>
   </si>
 </sst>
 </file>
@@ -57,18 +210,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -79,12 +226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,18 +266,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,87 +621,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24" style="9" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+      <formula1>$H$31:$H$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+      <formula1>$M$27:$M$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M25">
+      <formula1>$M$23:$M$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+      <formula1>$M$27:$M$29</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+      <formula1>$M$23:$M$25</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -528,83 +899,269 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+      <formula1>$M$23:$M$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+      <formula1>$M$27:$M$29</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+      <formula1>$N$37:$N$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+      <formula1>$N$41:$N$43</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentos/Pruebas/Feedback.xlsx
+++ b/Documentos/Pruebas/Feedback.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Rutinas" sheetId="3" r:id="rId2"/>
     <sheet name="Alumnos" sheetId="4" r:id="rId3"/>
     <sheet name="Grupos" sheetId="5" r:id="rId4"/>
+    <sheet name="Genera" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -188,6 +189,105 @@
   </si>
   <si>
     <t>el sistema debe de deshabilitar los botones si no tiene grupos agregados</t>
+  </si>
+  <si>
+    <t>AL-0001</t>
+  </si>
+  <si>
+    <t>En cada canvas (CRUD), al momento de llenar el un campo especial, debe de informar si existe algun otro con la misma informacion</t>
+  </si>
+  <si>
+    <t>Mostrar un mensaje diciendo que el objeto con la propiedad especifica ya existe</t>
+  </si>
+  <si>
+    <t>AL-0002</t>
+  </si>
+  <si>
+    <t>Al momento de actualizar un medicamento, se debe de eliminar de cada uno de sus componentes relacionados</t>
+  </si>
+  <si>
+    <t>Cada componente relacionado con un objeto del alumno debe actualizarse si recibe cambio alguno</t>
+  </si>
+  <si>
+    <t>AL-0003</t>
+  </si>
+  <si>
+    <t>La matricula debe de validarse</t>
+  </si>
+  <si>
+    <t>el campo de matricula debe de validarse</t>
+  </si>
+  <si>
+    <t>AL-0004</t>
+  </si>
+  <si>
+    <t>Los numero de telefono deben de ser validados</t>
+  </si>
+  <si>
+    <t>Cada numero de telefono debe de validarse</t>
+  </si>
+  <si>
+    <t>AL-0005</t>
+  </si>
+  <si>
+    <t>AL-0006</t>
+  </si>
+  <si>
+    <t>Al eliminar el tutor, no se limpia el campo de nombre</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>el boton eliminar tutor no limpia el campo de texto correspondiente al nombre del tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al momento de actualizar un medicamento, no se elimina de la lista </t>
+  </si>
+  <si>
+    <t>Se debe de elimiar de la lista de medicamentos</t>
+  </si>
+  <si>
+    <t>AL-0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No actualiza alergias </t>
+  </si>
+  <si>
+    <t>Accion</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>Agregar</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>30 hr</t>
+  </si>
+  <si>
+    <t>No esta actualizando las alergias</t>
+  </si>
+  <si>
+    <t>AL-0008</t>
+  </si>
+  <si>
+    <t>El sistema debe de guardar todos los datos al momento de presionar el boton guardar</t>
+  </si>
+  <si>
+    <t>90 min</t>
+  </si>
+  <si>
+    <t>El sistema debe de guardar todos los datos al momento de presionar el boton guardar, no conforme se vaya avanzando en el flujo basico</t>
   </si>
 </sst>
 </file>
@@ -210,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,6 +353,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -266,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -296,12 +402,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -319,6 +419,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,69 +728,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="G1" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>9</v>
       </c>
+      <c r="I33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$H$31:$H$33</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
-      <formula1>$M$27:$M$29</formula1>
+      <formula1>$H$35:$H$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$I$31:$I$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,10 +856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,9 +870,10 @@
     <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="36.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -727,8 +892,11 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -748,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -768,7 +936,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -788,7 +956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -808,7 +976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -828,7 +996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -878,8 +1046,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M25">
       <formula1>$M$23:$M$25</formula1>
     </dataValidation>
@@ -889,6 +1082,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$M$23:$M$25</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$I$50:$I$54</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -896,61 +1092,281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
-      <formula1>$M$23:$M$25</formula1>
+      <formula1>$I$58:$I$60</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
-      <formula1>$M$27:$M$29</formula1>
+      <formula1>$J$58:$J$60</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$K$58:$K$62</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,29 +1377,33 @@
     <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="9" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G1" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1003,7 +1423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1023,7 +1443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
@@ -1043,7 +1463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
@@ -1063,7 +1483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
@@ -1083,7 +1503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
@@ -1103,7 +1523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -1153,14 +1573,143 @@
         <v>12</v>
       </c>
     </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$N$37:$N$39</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
       <formula1>$N$41:$N$43</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$J$79:$J$83</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="12:14" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+      <formula1>$N$49:$N$51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+      <formula1>$M$49:$M$51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>$L$49:$L$53</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentos/Pruebas/Feedback.xlsx
+++ b/Documentos/Pruebas/Feedback.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Diagnosticos" sheetId="2" r:id="rId1"/>
@@ -13,12 +13,13 @@
     <sheet name="Grupos" sheetId="5" r:id="rId4"/>
     <sheet name="Genera" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -288,13 +289,28 @@
   </si>
   <si>
     <t>El sistema debe de guardar todos los datos al momento de presionar el boton guardar, no conforme se vaya avanzando en el flujo basico</t>
+  </si>
+  <si>
+    <t>Al agregar el medicamento el sistema debe regresarte a la ventana de alumnos, lo cuál no sucede</t>
+  </si>
+  <si>
+    <t>Hacer que el sistema regrese a la ventana correspondiente</t>
+  </si>
+  <si>
+    <t>DI-0002</t>
+  </si>
+  <si>
+    <t>El sistema agrega dos veces una discapacidad al presionar el boton "Continuar"</t>
+  </si>
+  <si>
+    <t>Se debe proceder a eliminar dicho botón, debido a que su función es totalmente innecesaria y solo entorpece el correcto funcionamiento del sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,7 +532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -551,7 +566,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -727,14 +741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
@@ -745,7 +759,7 @@
     <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -768,7 +782,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60">
       <c r="A2" s="9" t="s">
         <v>35</v>
       </c>
@@ -791,7 +805,30 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60">
+      <c r="A3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9">
       <c r="H31" t="s">
         <v>7</v>
       </c>
@@ -799,7 +836,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:9">
       <c r="H32" t="s">
         <v>8</v>
       </c>
@@ -807,7 +844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:9">
       <c r="H33" t="s">
         <v>9</v>
       </c>
@@ -815,12 +852,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:9">
       <c r="I34" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:9">
       <c r="H35" t="s">
         <v>10</v>
       </c>
@@ -828,22 +865,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:9">
       <c r="H36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:9">
       <c r="H37" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$H$31:$H$33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
       <formula1>$H$35:$H$37</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -855,14 +892,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="5" customWidth="1"/>
@@ -873,7 +910,7 @@
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -896,7 +933,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -916,7 +953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -936,7 +973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -956,7 +993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -976,7 +1013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -996,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1016,57 +1053,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:13">
       <c r="M23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:13">
       <c r="M24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:13">
       <c r="M25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:13">
       <c r="M27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:13">
       <c r="M28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="13:13">
       <c r="M29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9">
       <c r="I50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9">
       <c r="I51" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9">
       <c r="I52" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9">
       <c r="I53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9">
       <c r="I54" t="s">
         <v>83</v>
       </c>
@@ -1076,10 +1113,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M25">
       <formula1>$M$23:$M$25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
       <formula1>$M$27:$M$29</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$M$23:$M$25</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -1091,14 +1128,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="9" customWidth="1"/>
@@ -1109,7 +1146,7 @@
     <col min="7" max="7" width="18.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="75">
       <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
@@ -1155,7 +1192,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60">
       <c r="A3" s="9" t="s">
         <v>60</v>
       </c>
@@ -1178,7 +1215,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="9" t="s">
         <v>63</v>
       </c>
@@ -1201,7 +1238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
@@ -1224,7 +1261,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -1247,7 +1284,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="9" t="s">
         <v>70</v>
       </c>
@@ -1270,7 +1307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
@@ -1293,15 +1330,30 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="60">
       <c r="A9" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11">
       <c r="I58" t="s">
         <v>7</v>
       </c>
@@ -1312,7 +1364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:11">
       <c r="I59" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:11">
       <c r="I60" t="s">
         <v>9</v>
       </c>
@@ -1334,22 +1386,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:11">
       <c r="K61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:11">
       <c r="K62" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$I$58:$I$60</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
       <formula1>$J$58:$J$60</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -1362,14 +1414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="9" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="9" customWidth="1"/>
@@ -1380,7 +1432,7 @@
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1423,7 +1475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1443,7 +1495,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="9" t="s">
         <v>43</v>
       </c>
@@ -1463,7 +1515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
@@ -1483,7 +1535,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
@@ -1503,7 +1555,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45">
       <c r="A7" s="9" t="s">
         <v>51</v>
       </c>
@@ -1523,7 +1575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45">
       <c r="A8" s="9" t="s">
         <v>54</v>
       </c>
@@ -1543,67 +1595,67 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:14">
       <c r="N37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:14">
       <c r="N38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:14">
       <c r="N39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:14">
       <c r="N41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:14">
       <c r="N42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:14">
       <c r="N43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:10">
       <c r="J79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:10">
       <c r="J80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10">
       <c r="J81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10">
       <c r="J82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10">
       <c r="J83" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$N$37:$N$39</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
       <formula1>$N$41:$N$43</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
@@ -1615,14 +1667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
@@ -1633,7 +1685,7 @@
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:14">
       <c r="L49" t="s">
         <v>79</v>
       </c>
@@ -1667,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="12:14">
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -1678,7 +1730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="12:14">
       <c r="L51" t="s">
         <v>81</v>
       </c>
@@ -1689,22 +1741,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="12:14">
       <c r="L52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="12:14">
       <c r="L53" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese el estado del defecto" sqref="B1:B1048576">
       <formula1>$N$49:$N$51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones _x000a_esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Solo una de las 3 opciones &#10;esta disponible" promptTitle="Ingrese la prioridad del defecto" sqref="D1:D1048576">
       <formula1>$M$49:$M$51</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
